--- a/cargohose_herren/2024_07/cargohose_herren_2024_07_st250_copy.xlsx
+++ b/cargohose_herren/2024_07/cargohose_herren_2024_07_st250_copy.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="159">
   <si>
     <t>group</t>
   </si>
@@ -159,55 +159,64 @@
     <t>value</t>
   </si>
   <si>
+    <t>ymd</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
-    <t>ymd</t>
-  </si>
-  <si>
     <t>cargohose herren baggy cargohose herren sommer baumwolle cargohose herren lang sommer cargohose herren stretch übergröße cargohose herren schwarz chino cargohose herren sommer zip off cargohose herren schwarz lang cargohose herren baggy y2k</t>
   </si>
   <si>
+    <t>2024_07_26</t>
+  </si>
+  <si>
+    <t>InUse</t>
+  </si>
+  <si>
+    <t>2024-07-26 15:53:25</t>
+  </si>
+  <si>
+    <t>cargohose herren stretch cargohose herren sommer jogging cargohose herren baggy beige cargohose herren lang cargohose herren stretch slim fit cargohose herren sommer zip off cargohose herren stretch 42/32 cargohose herren baggy y2k</t>
+  </si>
+  <si>
+    <t>cargohose herren schwarz cargohose herren sommer zip off cargohose herren schwarz security cargohose herren sommer große größen cargohose herren schwarz militär cargohose herren baggy y2k cargohose herren lang weit cargohose herren stretch lang</t>
+  </si>
+  <si>
+    <t>cargohose herren stretch cargohose herren schwarz militär cargohose herren langgröße cargohose herren baggy weiß cargohose herren schwarz lang cargohose herren sommer jogging cargohose herren baggy schwarz cargohose herren stretch sommer</t>
+  </si>
+  <si>
+    <t>cargohose herren stretch cargohose herren stretch übergröße cargohose herren sommer baumwolle cargohose herren lang sommer cargohose herren schwarz sommer cargohose herren baggy mit print cargohose herren baggy beige cargohose herren sommer zip off</t>
+  </si>
+  <si>
+    <t>cargohose herren schwarz cargohose herren sommer jogging cargohose herren langgröße cargohose herren baggy beige cargohose herren sommer leicht lang cargohose herren lang cargohose herren stretch übergröße cargohose herren baggy schwarz</t>
+  </si>
+  <si>
+    <t>cargohose herren baggy cargohose herren schwarz militär cargohose herren baggy y2k cargohose herren stretch 42/32 cargohose herren sommer jogging cargohose herren langgröße cargohose herren baggy weiß cargohose herren schwarz sommer</t>
+  </si>
+  <si>
+    <t>cargohose herren lang leichte cargohose herren sommer cargohose herren baggy schwarz cargohose herren sommer leicht cargohose herren stretch 42/32 cargohose herren lang army cargohose herren schwarz militär cargohose herren baggy</t>
+  </si>
+  <si>
+    <t>cargohose herren stretch cargohose herren sommer baumwolle cargohose herren schwarz chino cargohose herren lang cargohose herren langgröße cargohose herren baggy y2k cargohose herren sommer leicht lang cargohose herren stretch übergröße</t>
+  </si>
+  <si>
+    <t>cargohose herren schwarz cargohose herren baggy y2k cargohose herren schwarz chino cargohose herren stretch slim fit cargohose herren sommer baumwolle cargohose herren stretch lang cargohose herren schwarz sommer cargohose herren sommer zip off</t>
+  </si>
+  <si>
+    <t>cargohose herren lang cargohose herren sommer cargohose herren lang army cargohose herren stretch sommer cargohose herren baggy baumwolle leichte cargohose herren sommer cargohose herren baggy beige cargohose herren sommer leicht lang</t>
+  </si>
+  <si>
+    <t>cargohose herren schwarz cargohose herren baggy schwarz cargohose herren stretch übergröße cargohose herren sommer baumwolle cargohose herren lang army cargohose herren schwarz baggy cargohose herren lang cargohose herren baggy weiß</t>
+  </si>
+  <si>
+    <t>cargohose herren baggy cargohose herren schwarz sommer cargohose herren baggy mit print cargohose herren schwarz baggy cargohose herren sommer baumwolle cargohose herren stretch 42/32 cargohose herren lang army cargohose herren baggy weiß</t>
+  </si>
+  <si>
+    <t>cargohose herren baggy cargohose herren sommer baumwolle cargohose herren lang sommer cargohose herren sommer zip off cargohose herren schwarz militär cargohose herren schwarz security cargohose herren stretch sommer cargohose herren baggy mit print</t>
+  </si>
+  <si>
     <t>Unused</t>
-  </si>
-  <si>
-    <t>cargohose herren stretch cargohose herren sommer jogging cargohose herren baggy beige cargohose herren lang cargohose herren stretch slim fit cargohose herren sommer zip off cargohose herren stretch 42/32 cargohose herren baggy y2k</t>
-  </si>
-  <si>
-    <t>cargohose herren schwarz cargohose herren sommer zip off cargohose herren schwarz security cargohose herren sommer große größen cargohose herren schwarz militär cargohose herren baggy y2k cargohose herren lang weit cargohose herren stretch lang</t>
-  </si>
-  <si>
-    <t>cargohose herren stretch cargohose herren schwarz militär cargohose herren langgröße cargohose herren baggy weiß cargohose herren schwarz lang cargohose herren sommer jogging cargohose herren baggy schwarz cargohose herren stretch sommer</t>
-  </si>
-  <si>
-    <t>cargohose herren stretch cargohose herren stretch übergröße cargohose herren sommer baumwolle cargohose herren lang sommer cargohose herren schwarz sommer cargohose herren baggy mit print cargohose herren baggy beige cargohose herren sommer zip off</t>
-  </si>
-  <si>
-    <t>cargohose herren schwarz cargohose herren sommer jogging cargohose herren langgröße cargohose herren baggy beige cargohose herren sommer leicht lang cargohose herren lang cargohose herren stretch übergröße cargohose herren baggy schwarz</t>
-  </si>
-  <si>
-    <t>cargohose herren baggy cargohose herren schwarz militär cargohose herren baggy y2k cargohose herren stretch 42/32 cargohose herren sommer jogging cargohose herren langgröße cargohose herren baggy weiß cargohose herren schwarz sommer</t>
-  </si>
-  <si>
-    <t>cargohose herren lang leichte cargohose herren sommer cargohose herren baggy schwarz cargohose herren sommer leicht cargohose herren stretch 42/32 cargohose herren lang army cargohose herren schwarz militär cargohose herren baggy</t>
-  </si>
-  <si>
-    <t>cargohose herren stretch cargohose herren sommer baumwolle cargohose herren schwarz chino cargohose herren lang cargohose herren langgröße cargohose herren baggy y2k cargohose herren sommer leicht lang cargohose herren stretch übergröße</t>
-  </si>
-  <si>
-    <t>cargohose herren schwarz cargohose herren baggy y2k cargohose herren schwarz chino cargohose herren stretch slim fit cargohose herren sommer baumwolle cargohose herren stretch lang cargohose herren schwarz sommer cargohose herren sommer zip off</t>
-  </si>
-  <si>
-    <t>cargohose herren lang cargohose herren sommer cargohose herren lang army cargohose herren stretch sommer cargohose herren baggy baumwolle leichte cargohose herren sommer cargohose herren baggy beige cargohose herren sommer leicht lang</t>
-  </si>
-  <si>
-    <t>cargohose herren schwarz cargohose herren baggy schwarz cargohose herren stretch übergröße cargohose herren sommer baumwolle cargohose herren lang army cargohose herren schwarz baggy cargohose herren lang cargohose herren baggy weiß</t>
-  </si>
-  <si>
-    <t>cargohose herren baggy cargohose herren schwarz sommer cargohose herren baggy mit print cargohose herren schwarz baggy cargohose herren sommer baumwolle cargohose herren stretch 42/32 cargohose herren lang army cargohose herren baggy weiß</t>
-  </si>
-  <si>
-    <t>cargohose herren baggy cargohose herren sommer baumwolle cargohose herren lang sommer cargohose herren sommer zip off cargohose herren schwarz militär cargohose herren schwarz security cargohose herren stretch sommer cargohose herren baggy mit print</t>
   </si>
   <si>
     <t/>
@@ -508,7 +517,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +528,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -992,156 +1008,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1923,15 +1940,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1950,8 +1967,11 @@
       <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1967,8 +1987,14 @@
       <c r="E2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1979,13 +2005,19 @@
         <v>231</v>
       </c>
       <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1996,13 +2028,19 @@
         <v>244</v>
       </c>
       <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2013,13 +2051,19 @@
         <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2030,13 +2074,19 @@
         <v>248</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2047,13 +2097,19 @@
         <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2064,13 +2120,19 @@
         <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2081,13 +2143,19 @@
         <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2098,13 +2166,19 @@
         <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2115,13 +2189,19 @@
         <v>244</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2132,13 +2212,19 @@
         <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2149,13 +2235,19 @@
         <v>232</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2166,13 +2258,19 @@
         <v>238</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2183,16 +2281,19 @@
         <v>249</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2203,16 +2304,19 @@
         <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2223,16 +2327,19 @@
         <v>236</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2243,16 +2350,19 @@
         <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2263,16 +2373,19 @@
         <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2283,16 +2396,19 @@
         <v>250</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2303,16 +2419,19 @@
         <v>240</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2323,16 +2442,19 @@
         <v>242</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -2343,16 +2465,19 @@
         <v>244</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -2363,16 +2488,19 @@
         <v>243</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -2383,16 +2511,19 @@
         <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2403,16 +2534,19 @@
         <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -2423,16 +2557,19 @@
         <v>237</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2443,16 +2580,19 @@
         <v>239</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -2463,16 +2603,19 @@
         <v>238</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -2483,16 +2626,19 @@
         <v>245</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
         <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2503,16 +2649,19 @@
         <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -2523,16 +2672,19 @@
         <v>241</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
         <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2543,16 +2695,19 @@
         <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
         <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -2563,16 +2718,19 @@
         <v>242</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
         <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -2583,16 +2741,19 @@
         <v>237</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
         <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -2603,16 +2764,19 @@
         <v>234</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
         <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -2623,16 +2787,19 @@
         <v>230</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
         <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -2643,16 +2810,19 @@
         <v>240</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E38" t="s">
         <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -2663,16 +2833,19 @@
         <v>239</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
         <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2683,16 +2856,19 @@
         <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
         <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -2703,16 +2879,19 @@
         <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
         <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -2723,16 +2902,19 @@
         <v>244</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -2743,16 +2925,19 @@
         <v>240</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E43" t="s">
         <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -2763,16 +2948,19 @@
         <v>234</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
         <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -2783,16 +2971,19 @@
         <v>242</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
         <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -2803,16 +2994,19 @@
         <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
         <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2823,16 +3017,19 @@
         <v>245</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -2843,16 +3040,19 @@
         <v>242</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2863,16 +3063,19 @@
         <v>245</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
         <v>46</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -2883,16 +3086,19 @@
         <v>239</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
         <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2903,16 +3109,19 @@
         <v>241</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
         <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -2923,16 +3132,19 @@
         <v>246</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
         <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -2943,16 +3155,19 @@
         <v>246</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E53" t="s">
         <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2963,16 +3178,19 @@
         <v>246</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
         <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -2983,16 +3201,19 @@
         <v>234</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E55" t="s">
         <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -3003,16 +3224,19 @@
         <v>249</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
         <v>46</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -3023,16 +3247,19 @@
         <v>242</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
         <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -3043,16 +3270,19 @@
         <v>245</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
         <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -3063,16 +3293,19 @@
         <v>243</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
         <v>46</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -3083,16 +3316,19 @@
         <v>229</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
         <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -3103,16 +3339,19 @@
         <v>250</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -3123,16 +3362,19 @@
         <v>239</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
         <v>46</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -3143,16 +3385,19 @@
         <v>241</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
         <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -3163,16 +3408,19 @@
         <v>249</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E64" t="s">
         <v>46</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -3183,16 +3431,19 @@
         <v>243</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E65" t="s">
         <v>46</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -3203,16 +3454,19 @@
         <v>248</v>
       </c>
       <c r="D66" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E66" t="s">
         <v>46</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -3223,16 +3477,19 @@
         <v>239</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E67" t="s">
         <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -3243,16 +3500,19 @@
         <v>246</v>
       </c>
       <c r="D68" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E68" t="s">
         <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -3263,16 +3523,19 @@
         <v>239</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E69" t="s">
         <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -3283,16 +3546,19 @@
         <v>235</v>
       </c>
       <c r="D70" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E70" t="s">
         <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -3303,16 +3569,19 @@
         <v>240</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E71" t="s">
         <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -3323,16 +3592,19 @@
         <v>242</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E72" t="s">
         <v>46</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -3343,16 +3615,19 @@
         <v>229</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E73" t="s">
         <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -3363,16 +3638,19 @@
         <v>241</v>
       </c>
       <c r="D74" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E74" t="s">
         <v>46</v>
       </c>
       <c r="F74" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -3383,16 +3661,19 @@
         <v>248</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E75" t="s">
         <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -3403,16 +3684,19 @@
         <v>249</v>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E76" t="s">
         <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -3423,16 +3707,19 @@
         <v>241</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E77" t="s">
         <v>46</v>
       </c>
       <c r="F77" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -3443,16 +3730,19 @@
         <v>234</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E78" t="s">
         <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -3463,16 +3753,19 @@
         <v>249</v>
       </c>
       <c r="D79" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E79" t="s">
         <v>46</v>
       </c>
       <c r="F79" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -3483,16 +3776,19 @@
         <v>237</v>
       </c>
       <c r="D80" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E80" t="s">
         <v>46</v>
       </c>
       <c r="F80" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -3503,16 +3799,19 @@
         <v>228</v>
       </c>
       <c r="D81" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E81" t="s">
         <v>46</v>
       </c>
       <c r="F81" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -3523,16 +3822,19 @@
         <v>240</v>
       </c>
       <c r="D82" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E82" t="s">
         <v>46</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -3543,16 +3845,19 @@
         <v>239</v>
       </c>
       <c r="D83" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E83" t="s">
         <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -3563,16 +3868,19 @@
         <v>244</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E84" t="s">
         <v>46</v>
       </c>
       <c r="F84" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -3583,16 +3891,19 @@
         <v>226</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E85" t="s">
         <v>46</v>
       </c>
       <c r="F85" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G85" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -3603,16 +3914,19 @@
         <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E86" t="s">
         <v>46</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -3623,16 +3937,19 @@
         <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E87" t="s">
         <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -3643,16 +3960,19 @@
         <v>242</v>
       </c>
       <c r="D88" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E88" t="s">
         <v>46</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -3663,16 +3983,19 @@
         <v>248</v>
       </c>
       <c r="D89" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E89" t="s">
         <v>46</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -3683,16 +4006,19 @@
         <v>241</v>
       </c>
       <c r="D90" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E90" t="s">
         <v>46</v>
       </c>
       <c r="F90" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3703,16 +4029,19 @@
         <v>238</v>
       </c>
       <c r="D91" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E91" t="s">
         <v>46</v>
       </c>
       <c r="F91" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G91" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -3723,16 +4052,19 @@
         <v>248</v>
       </c>
       <c r="D92" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E92" t="s">
         <v>46</v>
       </c>
       <c r="F92" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G92" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -3743,16 +4075,19 @@
         <v>237</v>
       </c>
       <c r="D93" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E93" t="s">
         <v>46</v>
       </c>
       <c r="F93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G93" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -3763,16 +4098,19 @@
         <v>245</v>
       </c>
       <c r="D94" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E94" t="s">
         <v>46</v>
       </c>
       <c r="F94" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -3783,16 +4121,19 @@
         <v>239</v>
       </c>
       <c r="D95" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E95" t="s">
         <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -3803,16 +4144,19 @@
         <v>236</v>
       </c>
       <c r="D96" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E96" t="s">
         <v>46</v>
       </c>
       <c r="F96" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -3823,16 +4167,19 @@
         <v>243</v>
       </c>
       <c r="D97" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E97" t="s">
         <v>46</v>
       </c>
       <c r="F97" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -3843,16 +4190,19 @@
         <v>245</v>
       </c>
       <c r="D98" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E98" t="s">
         <v>46</v>
       </c>
       <c r="F98" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G98" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3863,16 +4213,19 @@
         <v>239</v>
       </c>
       <c r="D99" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E99" t="s">
         <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G99" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3883,16 +4236,19 @@
         <v>248</v>
       </c>
       <c r="D100" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E100" t="s">
         <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G100" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -3903,16 +4259,19 @@
         <v>243</v>
       </c>
       <c r="D101" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E101" t="s">
         <v>46</v>
       </c>
       <c r="F101" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G101" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -3923,16 +4282,19 @@
         <v>238</v>
       </c>
       <c r="D102" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E102" t="s">
         <v>46</v>
       </c>
       <c r="F102" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G102" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -3943,16 +4305,19 @@
         <v>246</v>
       </c>
       <c r="D103" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E103" t="s">
         <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3963,16 +4328,19 @@
         <v>233</v>
       </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E104" t="s">
         <v>46</v>
       </c>
       <c r="F104" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G104" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3983,16 +4351,19 @@
         <v>234</v>
       </c>
       <c r="D105" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E105" t="s">
         <v>46</v>
       </c>
       <c r="F105" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G105" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -4003,16 +4374,19 @@
         <v>246</v>
       </c>
       <c r="D106" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E106" t="s">
         <v>46</v>
       </c>
       <c r="F106" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G106" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -4023,16 +4397,19 @@
         <v>247</v>
       </c>
       <c r="D107" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E107" t="s">
         <v>46</v>
       </c>
       <c r="F107" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G107" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -4043,16 +4420,19 @@
         <v>245</v>
       </c>
       <c r="D108" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E108" t="s">
         <v>46</v>
       </c>
       <c r="F108" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G108" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -4063,16 +4443,19 @@
         <v>242</v>
       </c>
       <c r="D109" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E109" t="s">
         <v>46</v>
       </c>
       <c r="F109" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="G109" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -4083,13 +4466,16 @@
         <v>241</v>
       </c>
       <c r="D110" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E110" t="s">
         <v>46</v>
       </c>
       <c r="F110" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="G110" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
